--- a/terms-source/terms-juridical-v1a2.xlsx
+++ b/terms-source/terms-juridical-v1a2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/LDA-mixed-terms/terms-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4633F94-E910-994A-AEF0-CA57C58208B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CAFEE8-6AF2-5845-AF25-DE7F2D0F8723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5120" yWindow="1740" windowWidth="28360" windowHeight="17440" xr2:uid="{0DED6FE7-FA38-2E46-8D7C-56B052820303}"/>
+    <workbookView xWindow="7320" yWindow="1080" windowWidth="29600" windowHeight="17820" xr2:uid="{0DED6FE7-FA38-2E46-8D7C-56B052820303}"/>
   </bookViews>
   <sheets>
     <sheet name="juridical.a" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="220">
   <si>
     <t>local.id</t>
     <phoneticPr fontId="1"/>
@@ -699,6 +699,12 @@
   </si>
   <si>
     <t>毎月1回以上一定期日払いの原則</t>
+  </si>
+  <si>
+    <t>rid</t>
+  </si>
+  <si>
+    <t>subsampled</t>
   </si>
 </sst>
 </file>
@@ -758,12 +764,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
     <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -788,6 +796,7 @@
         <name val="Lucida Sans Unicode"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -942,6 +951,36 @@
         <scheme val="none"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -956,12 +995,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93FDF520-AD01-B845-B289-B52D041AD851}" name="Table1" displayName="Table1" ref="A1:J209" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
-  <autoFilter ref="A1:J209" xr:uid="{93FDF520-AD01-B845-B289-B52D041AD851}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J209">
-    <sortCondition ref="I1:I209"/>
-  </sortState>
-  <tableColumns count="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{93FDF520-AD01-B845-B289-B52D041AD851}" name="Table1" displayName="Table1" ref="A1:L209" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:L209" xr:uid="{93FDF520-AD01-B845-B289-B52D041AD851}"/>
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{24DF7072-0D30-DA49-B5A2-78642C432DA1}" name="local.id" dataDxfId="11"/>
     <tableColumn id="2" xr3:uid="{3E8EEAF7-B857-7940-9124-A5196A9881DE}" name="word" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{A540138B-71EC-7A49-92B1-75BF5FB78C04}" name="medical" dataDxfId="9"/>
@@ -973,6 +1009,10 @@
     <tableColumn id="9" xr3:uid="{CA40DE33-F07A-4A44-877F-44A0B8B7AD64}" name="nchar" dataDxfId="3">
       <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="11" xr3:uid="{44BAB56B-34CC-2E4E-8D01-00C3539CC96E}" name="rid" dataDxfId="1">
+      <calculatedColumnFormula>RAND()</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{3CD9B7B8-986A-F94A-913D-0A32BBD578C7}" name="subsampled" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{8E9837A3-9DF1-3640-B6F8-4CF6BC3CDB7A}" name="note" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1276,24 +1316,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCF3E8E-7A38-3045-AF13-F42FE1E8EA1D}">
-  <dimension ref="A1:J209"/>
+  <dimension ref="A1:M209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="4520" ySplit="5560" topLeftCell="A193" activePane="bottomRight"/>
+      <pane xSplit="4520" ySplit="5560" topLeftCell="C197" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
-      <selection pane="topRight" activeCell="G4" sqref="G4"/>
+      <selection pane="topRight" activeCell="K2" sqref="K2:K209"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="C202" sqref="B202:C202"/>
+      <selection pane="bottomRight" activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1"/>
     <col min="2" max="2" width="22.375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.625" style="1"/>
+    <col min="3" max="12" width="10.625" style="1"/>
+    <col min="14" max="16384" width="10.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1322,15 +1363,22 @@
         <v>215</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
@@ -1352,15 +1400,22 @@
       </c>
       <c r="I2" s="1">
         <f t="shared" ref="I2:I65" si="0">LEN(B2)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>108</v>
+        <v>200</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -1382,15 +1437,22 @@
       </c>
       <c r="I3" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1"/>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>167</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
@@ -1412,15 +1474,22 @@
       </c>
       <c r="I4" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -1442,15 +1511,22 @@
       </c>
       <c r="I5" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="J5" s="1">
+        <v>4</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -1472,15 +1548,22 @@
       </c>
       <c r="I6" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1"/>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>115</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
@@ -1502,10 +1585,17 @@
       </c>
       <c r="I7" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1">
+        <v>6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1534,13 +1624,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="J8" s="1">
+        <v>7</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -1564,13 +1661,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="J9" s="1">
+        <v>8</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>192</v>
       </c>
       <c r="C10" s="1">
         <v>0</v>
@@ -1592,15 +1696,22 @@
       </c>
       <c r="I10" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -1622,15 +1733,22 @@
       </c>
       <c r="I11" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>4</v>
+      </c>
+      <c r="J11" s="1">
+        <v>10</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>174</v>
       </c>
       <c r="C12" s="1">
         <v>0</v>
@@ -1652,15 +1770,22 @@
       </c>
       <c r="I12" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>11</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1"/>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
@@ -1684,13 +1809,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="J13" s="1">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1"/>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>183</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1714,13 +1846,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="J14" s="1">
+        <v>13</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1744,13 +1883,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="J15" s="1">
+        <v>14</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1">
         <v>0</v>
@@ -1774,13 +1920,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16" s="1">
+        <v>15</v>
+      </c>
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1802,15 +1955,22 @@
       </c>
       <c r="I17" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J17" s="1">
+        <v>16</v>
+      </c>
+      <c r="K17" s="1">
+        <v>1</v>
+      </c>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1832,15 +1992,22 @@
       </c>
       <c r="I18" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>17</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1">
         <v>0</v>
@@ -1864,13 +2031,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:9">
+      <c r="J19" s="1">
+        <v>18</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>113</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <v>0</v>
@@ -1892,15 +2066,22 @@
       </c>
       <c r="I20" s="1">
         <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>19</v>
+      </c>
+      <c r="K20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="1">
+        <v>207</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="C21" s="1">
         <v>0</v>
@@ -1922,15 +2103,22 @@
       </c>
       <c r="I21" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>12</v>
+      </c>
+      <c r="J21" s="1">
+        <v>20</v>
+      </c>
+      <c r="K21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>108</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -1952,15 +2140,22 @@
       </c>
       <c r="I22" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>21</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1"/>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>189</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -1982,15 +2177,22 @@
       </c>
       <c r="I23" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J23" s="1">
+        <v>22</v>
+      </c>
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>184</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>207</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -2012,15 +2214,22 @@
       </c>
       <c r="I24" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J24" s="1">
+        <v>23</v>
+      </c>
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -2044,13 +2253,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:9">
+      <c r="J25" s="1">
+        <v>24</v>
+      </c>
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+      <c r="M25" s="1"/>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -2072,15 +2288,22 @@
       </c>
       <c r="I26" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J26" s="1">
+        <v>25</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1"/>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -2102,15 +2325,22 @@
       </c>
       <c r="I27" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J27" s="1">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="1"/>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>113</v>
+        <v>15</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -2134,13 +2364,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:9">
+      <c r="J28" s="1">
+        <v>27</v>
+      </c>
+      <c r="K28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" s="1"/>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -2162,15 +2399,22 @@
       </c>
       <c r="I29" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J29" s="1">
+        <v>28</v>
+      </c>
+      <c r="K29" s="1">
+        <v>1</v>
+      </c>
+      <c r="M29" s="1"/>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>19</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -2194,13 +2438,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:9">
+      <c r="J30" s="1">
+        <v>29</v>
+      </c>
+      <c r="K30" s="1">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -2222,15 +2473,22 @@
       </c>
       <c r="I31" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J31" s="1">
+        <v>30</v>
+      </c>
+      <c r="K31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1"/>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>142</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -2252,15 +2510,22 @@
       </c>
       <c r="I32" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J32" s="1">
+        <v>31</v>
+      </c>
+      <c r="K32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>131</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -2282,15 +2547,22 @@
       </c>
       <c r="I33" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1">
+        <v>32</v>
+      </c>
+      <c r="K33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1"/>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>136</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -2312,15 +2584,22 @@
       </c>
       <c r="I34" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J34" s="1">
+        <v>33</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1"/>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>199</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>137</v>
+        <v>16</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -2342,15 +2621,22 @@
       </c>
       <c r="I35" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J35" s="1">
+        <v>34</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1"/>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -2374,13 +2660,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:9">
+      <c r="J36" s="1">
+        <v>35</v>
+      </c>
+      <c r="K36" s="1">
+        <v>1</v>
+      </c>
+      <c r="M36" s="1"/>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>146</v>
+        <v>90</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -2402,15 +2695,22 @@
       </c>
       <c r="I37" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>36</v>
+      </c>
+      <c r="K37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -2432,15 +2732,22 @@
       </c>
       <c r="I38" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>37</v>
+      </c>
+      <c r="K38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -2464,13 +2771,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:9">
+      <c r="J39" s="1">
+        <v>38</v>
+      </c>
+      <c r="K39" s="1">
+        <v>1</v>
+      </c>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>149</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -2492,15 +2806,22 @@
       </c>
       <c r="I40" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1">
+        <v>39</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>158</v>
+        <v>99</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -2522,15 +2843,22 @@
       </c>
       <c r="I41" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1">
+        <v>40</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>22</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -2552,15 +2880,22 @@
       </c>
       <c r="I42" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J42" s="1">
+        <v>41</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>102</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -2584,13 +2919,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:9">
+      <c r="J43" s="1">
+        <v>42</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -2612,15 +2954,22 @@
       </c>
       <c r="I44" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J44" s="1">
+        <v>43</v>
+      </c>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -2644,13 +2993,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" s="1">
+        <v>44</v>
+      </c>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -2674,13 +3030,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:9">
+      <c r="J46" s="1">
+        <v>45</v>
+      </c>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="1"/>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>205</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -2702,15 +3065,22 @@
       </c>
       <c r="I47" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="J47" s="1">
+        <v>46</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1"/>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>88</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -2732,15 +3102,22 @@
       </c>
       <c r="I48" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J48" s="1">
+        <v>47</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1"/>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>141</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>180</v>
+        <v>145</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -2762,15 +3139,22 @@
       </c>
       <c r="I49" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J49" s="1">
+        <v>48</v>
+      </c>
+      <c r="K49" s="1">
+        <v>1</v>
+      </c>
+      <c r="M49" s="1"/>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="1">
-        <v>49</v>
+        <v>146</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -2792,15 +3176,22 @@
       </c>
       <c r="I50" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J50" s="1">
+        <v>49</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+      <c r="M50" s="1"/>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="1">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>183</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -2822,15 +3213,22 @@
       </c>
       <c r="I51" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J51" s="1">
+        <v>50</v>
+      </c>
+      <c r="K51" s="1">
+        <v>1</v>
+      </c>
+      <c r="M51" s="1"/>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>186</v>
+        <v>13</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -2854,13 +3252,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:9">
+      <c r="J52" s="1">
+        <v>51</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="M52" s="1"/>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -2884,13 +3289,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:9">
+      <c r="J53" s="1">
+        <v>52</v>
+      </c>
+      <c r="K53" s="1">
+        <v>1</v>
+      </c>
+      <c r="M53" s="1"/>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -2912,15 +3324,22 @@
       </c>
       <c r="I54" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J54" s="1">
+        <v>53</v>
+      </c>
+      <c r="K54" s="1">
+        <v>1</v>
+      </c>
+      <c r="M54" s="1"/>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>161</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>191</v>
+        <v>45</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -2942,15 +3361,22 @@
       </c>
       <c r="I55" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J55" s="1">
+        <v>54</v>
+      </c>
+      <c r="K55" s="1">
+        <v>1</v>
+      </c>
+      <c r="M55" s="1"/>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>194</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -2972,15 +3398,22 @@
       </c>
       <c r="I56" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J56" s="1">
+        <v>55</v>
+      </c>
+      <c r="K56" s="1">
+        <v>1</v>
+      </c>
+      <c r="M56" s="1"/>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="1">
-        <v>56</v>
+        <v>118</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -3002,15 +3435,22 @@
       </c>
       <c r="I57" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J57" s="1">
+        <v>56</v>
+      </c>
+      <c r="K57" s="1">
+        <v>1</v>
+      </c>
+      <c r="M57" s="1"/>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="1">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -3034,13 +3474,20 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:9">
+      <c r="J58" s="1">
+        <v>57</v>
+      </c>
+      <c r="K58" s="1">
+        <v>1</v>
+      </c>
+      <c r="M58" s="1"/>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="1">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>206</v>
+        <v>104</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -3062,15 +3509,22 @@
       </c>
       <c r="I59" s="1">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J59" s="1">
+        <v>58</v>
+      </c>
+      <c r="K59" s="1">
+        <v>1</v>
+      </c>
+      <c r="M59" s="1"/>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="1">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>3</v>
+        <v>189</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -3094,13 +3548,20 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" s="1">
+        <v>59</v>
+      </c>
+      <c r="K60" s="1">
+        <v>1</v>
+      </c>
+      <c r="M60" s="1"/>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="1">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>113</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -3122,15 +3583,22 @@
       </c>
       <c r="I61" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1">
+        <v>60</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1"/>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="1">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -3152,15 +3620,22 @@
       </c>
       <c r="I62" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J62" s="1">
+        <v>61</v>
+      </c>
+      <c r="K62" s="1">
+        <v>1</v>
+      </c>
+      <c r="M62" s="1"/>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="1">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>8</v>
+        <v>128</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -3182,15 +3657,22 @@
       </c>
       <c r="I63" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J63" s="1">
+        <v>62</v>
+      </c>
+      <c r="K63" s="1">
+        <v>1</v>
+      </c>
+      <c r="M63" s="1"/>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="1">
-        <v>63</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -3212,15 +3694,22 @@
       </c>
       <c r="I64" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J64" s="1">
+        <v>63</v>
+      </c>
+      <c r="K64" s="1">
+        <v>1</v>
+      </c>
+      <c r="M64" s="1"/>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1">
-        <v>64</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -3242,15 +3731,22 @@
       </c>
       <c r="I65" s="1">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J65" s="1">
+        <v>64</v>
+      </c>
+      <c r="K65" s="1">
+        <v>1</v>
+      </c>
+      <c r="M65" s="1"/>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1">
-        <v>65</v>
+        <v>175</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>28</v>
+        <v>132</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -3272,15 +3768,22 @@
       </c>
       <c r="I66" s="1">
         <f t="shared" ref="I66:I129" si="1">LEN(B66)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J66" s="1">
+        <v>65</v>
+      </c>
+      <c r="K66" s="1">
+        <v>1</v>
+      </c>
+      <c r="M66" s="1"/>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1">
-        <v>66</v>
+        <v>204</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>31</v>
+        <v>121</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -3302,15 +3805,22 @@
       </c>
       <c r="I67" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="J67" s="1">
+        <v>66</v>
+      </c>
+      <c r="K67" s="1">
+        <v>1</v>
+      </c>
+      <c r="M67" s="1"/>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -3334,13 +3844,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="69" spans="1:9">
+      <c r="J68" s="1">
+        <v>67</v>
+      </c>
+      <c r="K68" s="1">
+        <v>1</v>
+      </c>
+      <c r="M68" s="1"/>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -3362,15 +3879,22 @@
       </c>
       <c r="I69" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J69" s="1">
+        <v>68</v>
+      </c>
+      <c r="K69" s="1">
+        <v>1</v>
+      </c>
+      <c r="M69" s="1"/>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1">
-        <v>69</v>
+        <v>187</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -3392,15 +3916,22 @@
       </c>
       <c r="I70" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J70" s="1">
+        <v>69</v>
+      </c>
+      <c r="K70" s="1">
+        <v>1</v>
+      </c>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>64</v>
+        <v>196</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -3424,13 +3955,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="72" spans="1:9">
+      <c r="J71" s="1">
+        <v>70</v>
+      </c>
+      <c r="K71" s="1">
+        <v>1</v>
+      </c>
+      <c r="M71" s="1"/>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1">
-        <v>71</v>
+        <v>150</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>69</v>
+        <v>172</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -3452,15 +3990,22 @@
       </c>
       <c r="I72" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J72" s="1">
+        <v>71</v>
+      </c>
+      <c r="K72" s="1">
+        <v>1</v>
+      </c>
+      <c r="M72" s="1"/>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -3482,15 +4027,22 @@
       </c>
       <c r="I73" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1">
+        <v>72</v>
+      </c>
+      <c r="K73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" s="1"/>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -3512,15 +4064,22 @@
       </c>
       <c r="I74" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J74" s="1">
+        <v>73</v>
+      </c>
+      <c r="K74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" s="1"/>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -3544,13 +4103,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:9">
+      <c r="J75" s="1">
+        <v>74</v>
+      </c>
+      <c r="K75" s="1">
+        <v>1</v>
+      </c>
+      <c r="M75" s="1"/>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1">
-        <v>75</v>
+        <v>122</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -3572,15 +4138,22 @@
       </c>
       <c r="I76" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J76" s="1">
+        <v>75</v>
+      </c>
+      <c r="K76" s="1">
+        <v>1</v>
+      </c>
+      <c r="M76" s="1"/>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -3602,15 +4175,22 @@
       </c>
       <c r="I77" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J77" s="1">
+        <v>76</v>
+      </c>
+      <c r="K77" s="1">
+        <v>1</v>
+      </c>
+      <c r="M77" s="1"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -3634,13 +4214,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:9">
+      <c r="J78" s="1">
+        <v>77</v>
+      </c>
+      <c r="K78" s="1">
+        <v>1</v>
+      </c>
+      <c r="M78" s="1"/>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -3662,15 +4249,22 @@
       </c>
       <c r="I79" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J79" s="1">
+        <v>78</v>
+      </c>
+      <c r="K79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" s="1"/>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>122</v>
+        <v>89</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -3692,15 +4286,22 @@
       </c>
       <c r="I80" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J80" s="1">
+        <v>79</v>
+      </c>
+      <c r="K80" s="1">
+        <v>1</v>
+      </c>
+      <c r="M80" s="1"/>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="1">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>123</v>
+        <v>205</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -3724,13 +4325,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="1:9">
+      <c r="J81" s="1">
+        <v>80</v>
+      </c>
+      <c r="K81" s="1">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1"/>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="1">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -3754,13 +4362,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="83" spans="1:9">
+      <c r="J82" s="1">
+        <v>81</v>
+      </c>
+      <c r="K82" s="1">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1"/>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="1">
-        <v>82</v>
+        <v>186</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -3782,15 +4397,22 @@
       </c>
       <c r="I83" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J83" s="1">
+        <v>82</v>
+      </c>
+      <c r="K83" s="1">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1"/>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="1">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -3812,15 +4434,22 @@
       </c>
       <c r="I84" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J84" s="1">
+        <v>83</v>
+      </c>
+      <c r="K84" s="1">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1"/>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="1">
-        <v>84</v>
+        <v>183</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>140</v>
+        <v>199</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -3842,15 +4471,22 @@
       </c>
       <c r="I85" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J85" s="1">
+        <v>84</v>
+      </c>
+      <c r="K85" s="1">
+        <v>1</v>
+      </c>
+      <c r="M85" s="1"/>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="1">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C86" s="1">
         <v>0</v>
@@ -3872,15 +4508,22 @@
       </c>
       <c r="I86" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J86" s="1">
+        <v>85</v>
+      </c>
+      <c r="K86" s="1">
+        <v>1</v>
+      </c>
+      <c r="M86" s="1"/>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="1">
-        <v>86</v>
+        <v>9</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>147</v>
+        <v>38</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -3902,15 +4545,22 @@
       </c>
       <c r="I87" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J87" s="1">
+        <v>86</v>
+      </c>
+      <c r="K87" s="1">
+        <v>1</v>
+      </c>
+      <c r="M87" s="1"/>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="1">
-        <v>87</v>
+        <v>165</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>149</v>
+        <v>53</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -3932,15 +4582,22 @@
       </c>
       <c r="I88" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J88" s="1">
+        <v>87</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1"/>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="1">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>150</v>
+        <v>85</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -3962,15 +4619,22 @@
       </c>
       <c r="I89" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J89" s="1">
+        <v>88</v>
+      </c>
+      <c r="K89" s="1">
+        <v>1</v>
+      </c>
+      <c r="M89" s="1"/>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="1">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -3994,13 +4658,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="91" spans="1:9">
+      <c r="J90" s="1">
+        <v>89</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1"/>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="1">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>171</v>
+        <v>8</v>
       </c>
       <c r="C91" s="1">
         <v>0</v>
@@ -4024,13 +4695,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="1:9">
+      <c r="J91" s="1">
+        <v>90</v>
+      </c>
+      <c r="K91" s="1">
+        <v>1</v>
+      </c>
+      <c r="M91" s="1"/>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="1">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -4052,15 +4730,22 @@
       </c>
       <c r="I92" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J92" s="1">
+        <v>91</v>
+      </c>
+      <c r="K92" s="1">
+        <v>1</v>
+      </c>
+      <c r="M92" s="1"/>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="1">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -4084,13 +4769,20 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-    </row>
-    <row r="94" spans="1:9">
+      <c r="J93" s="1">
+        <v>92</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="1">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>24</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -4112,15 +4804,22 @@
       </c>
       <c r="I94" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J94" s="1">
+        <v>93</v>
+      </c>
+      <c r="K94" s="1">
+        <v>1</v>
+      </c>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="1">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>81</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -4142,15 +4841,22 @@
       </c>
       <c r="I95" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J95" s="1">
+        <v>94</v>
+      </c>
+      <c r="K95" s="1">
+        <v>1</v>
+      </c>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="1">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -4172,15 +4878,22 @@
       </c>
       <c r="I96" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J96" s="1">
+        <v>95</v>
+      </c>
+      <c r="K96" s="1">
+        <v>1</v>
+      </c>
+      <c r="M96" s="1"/>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="1">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>205</v>
+        <v>10</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -4202,15 +4915,22 @@
       </c>
       <c r="I97" s="1">
         <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J97" s="1">
+        <v>96</v>
+      </c>
+      <c r="K97" s="1">
+        <v>1</v>
+      </c>
+      <c r="M97" s="1"/>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="1">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>4</v>
+        <v>190</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -4232,15 +4952,22 @@
       </c>
       <c r="I98" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J98" s="1">
+        <v>97</v>
+      </c>
+      <c r="K98" s="1">
+        <v>1</v>
+      </c>
+      <c r="M98" s="1"/>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="1">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>7</v>
+        <v>194</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -4262,15 +4989,22 @@
       </c>
       <c r="I99" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J99" s="1">
+        <v>98</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1"/>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="1">
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>10</v>
+        <v>188</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -4292,15 +5026,22 @@
       </c>
       <c r="I100" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J100" s="1">
+        <v>99</v>
+      </c>
+      <c r="K100" s="1">
+        <v>1</v>
+      </c>
+      <c r="M100" s="1"/>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="1">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>11</v>
+        <v>198</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -4322,15 +5063,22 @@
       </c>
       <c r="I101" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J101" s="1">
+        <v>100</v>
+      </c>
+      <c r="K101" s="1">
+        <v>1</v>
+      </c>
+      <c r="M101" s="1"/>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="1">
-        <v>101</v>
+        <v>197</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>21</v>
+        <v>125</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -4352,15 +5100,22 @@
       </c>
       <c r="I102" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J102" s="1">
+        <v>101</v>
+      </c>
+      <c r="K102" s="1">
+        <v>1</v>
+      </c>
+      <c r="M102" s="1"/>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="1">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -4382,15 +5137,22 @@
       </c>
       <c r="I103" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J103" s="1">
+        <v>102</v>
+      </c>
+      <c r="K103" s="1">
+        <v>1</v>
+      </c>
+      <c r="M103" s="1"/>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="1">
-        <v>103</v>
+        <v>198</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -4412,15 +5174,22 @@
       </c>
       <c r="I104" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J104" s="1">
+        <v>103</v>
+      </c>
+      <c r="K104" s="1">
+        <v>1</v>
+      </c>
+      <c r="M104" s="1"/>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="1">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>24</v>
+        <v>76</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -4442,15 +5211,22 @@
       </c>
       <c r="I105" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J105" s="1">
+        <v>104</v>
+      </c>
+      <c r="K105" s="1">
+        <v>1</v>
+      </c>
+      <c r="M105" s="1"/>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="1">
-        <v>105</v>
+        <v>153</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -4474,13 +5250,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" s="1">
+        <v>105</v>
+      </c>
+      <c r="K106" s="1">
+        <v>1</v>
+      </c>
+      <c r="M106" s="1"/>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="1">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -4504,13 +5287,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:9">
+      <c r="J107" s="1">
+        <v>106</v>
+      </c>
+      <c r="K107" s="1">
+        <v>1</v>
+      </c>
+      <c r="M107" s="1"/>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="1">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>30</v>
+        <v>201</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
@@ -4534,13 +5324,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:9">
+      <c r="J108" s="1">
+        <v>107</v>
+      </c>
+      <c r="K108" s="1">
+        <v>1</v>
+      </c>
+      <c r="M108" s="1"/>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="1">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -4562,15 +5359,22 @@
       </c>
       <c r="I109" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J109" s="1">
+        <v>108</v>
+      </c>
+      <c r="K109" s="1">
+        <v>1</v>
+      </c>
+      <c r="M109" s="1"/>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="1">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -4592,15 +5396,22 @@
       </c>
       <c r="I110" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J110" s="1">
+        <v>109</v>
+      </c>
+      <c r="K110" s="1">
+        <v>1</v>
+      </c>
+      <c r="M110" s="1"/>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="1">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="C111" s="1">
         <v>0</v>
@@ -4622,15 +5433,22 @@
       </c>
       <c r="I111" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J111" s="1">
+        <v>110</v>
+      </c>
+      <c r="K111" s="1">
+        <v>1</v>
+      </c>
+      <c r="M111" s="1"/>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="1">
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -4654,13 +5472,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" s="1">
+        <v>111</v>
+      </c>
+      <c r="K112" s="1">
+        <v>1</v>
+      </c>
+      <c r="M112" s="1"/>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="1">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>39</v>
+        <v>170</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
@@ -4682,15 +5507,22 @@
       </c>
       <c r="I113" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J113" s="1">
+        <v>112</v>
+      </c>
+      <c r="K113" s="1">
+        <v>1</v>
+      </c>
+      <c r="M113" s="1"/>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="1">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>42</v>
+        <v>141</v>
       </c>
       <c r="C114" s="1">
         <v>0</v>
@@ -4712,15 +5544,22 @@
       </c>
       <c r="I114" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J114" s="1">
+        <v>113</v>
+      </c>
+      <c r="K114" s="1">
+        <v>1</v>
+      </c>
+      <c r="M114" s="1"/>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="1">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
@@ -4742,15 +5581,22 @@
       </c>
       <c r="I115" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J115" s="1">
+        <v>114</v>
+      </c>
+      <c r="K115" s="1">
+        <v>1</v>
+      </c>
+      <c r="M115" s="1"/>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="1">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>49</v>
+        <v>175</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -4772,15 +5618,22 @@
       </c>
       <c r="I116" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J116" s="1">
+        <v>115</v>
+      </c>
+      <c r="K116" s="1">
+        <v>1</v>
+      </c>
+      <c r="M116" s="1"/>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="1">
-        <v>116</v>
+        <v>54</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>59</v>
+        <v>191</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
@@ -4802,15 +5655,22 @@
       </c>
       <c r="I117" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J117" s="1">
+        <v>116</v>
+      </c>
+      <c r="K117" s="1">
+        <v>1</v>
+      </c>
+      <c r="M117" s="1"/>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="1">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C118" s="1">
         <v>0</v>
@@ -4832,15 +5692,22 @@
       </c>
       <c r="I118" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J118" s="1">
+        <v>117</v>
+      </c>
+      <c r="K118" s="1">
+        <v>1</v>
+      </c>
+      <c r="M118" s="1"/>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="1">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="C119" s="1">
         <v>0</v>
@@ -4864,13 +5731,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:9">
+      <c r="J119" s="1">
+        <v>118</v>
+      </c>
+      <c r="K119" s="1">
+        <v>1</v>
+      </c>
+      <c r="M119" s="1"/>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="1">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="C120" s="1">
         <v>0</v>
@@ -4892,15 +5766,22 @@
       </c>
       <c r="I120" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J120" s="1">
+        <v>119</v>
+      </c>
+      <c r="K120" s="1">
+        <v>1</v>
+      </c>
+      <c r="M120" s="1"/>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="1">
-        <v>120</v>
+        <v>174</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="C121" s="1">
         <v>0</v>
@@ -4922,15 +5803,22 @@
       </c>
       <c r="I121" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J121" s="1">
+        <v>120</v>
+      </c>
+      <c r="K121" s="1">
+        <v>1</v>
+      </c>
+      <c r="M121" s="1"/>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="1">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -4954,13 +5842,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:9">
+      <c r="J122" s="1">
+        <v>121</v>
+      </c>
+      <c r="K122" s="1">
+        <v>1</v>
+      </c>
+      <c r="M122" s="1"/>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="1">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="C123" s="1">
         <v>0</v>
@@ -4984,13 +5879,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="124" spans="1:9">
+      <c r="J123" s="1">
+        <v>122</v>
+      </c>
+      <c r="K123" s="1">
+        <v>1</v>
+      </c>
+      <c r="M123" s="1"/>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="1">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -5012,15 +5914,22 @@
       </c>
       <c r="I124" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J124" s="1">
+        <v>123</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1</v>
+      </c>
+      <c r="M124" s="1"/>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="1">
-        <v>124</v>
+        <v>201</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C125" s="1">
         <v>0</v>
@@ -5042,15 +5951,22 @@
       </c>
       <c r="I125" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J125" s="1">
+        <v>124</v>
+      </c>
+      <c r="K125" s="1">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1"/>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C126" s="1">
         <v>0</v>
@@ -5074,13 +5990,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:9">
+      <c r="J126" s="1">
+        <v>125</v>
+      </c>
+      <c r="K126" s="1">
+        <v>1</v>
+      </c>
+      <c r="M126" s="1"/>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="1">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>82</v>
+        <v>217</v>
       </c>
       <c r="C127" s="1">
         <v>0</v>
@@ -5102,15 +6025,22 @@
       </c>
       <c r="I127" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>15</v>
+      </c>
+      <c r="J127" s="1">
+        <v>126</v>
+      </c>
+      <c r="K127" s="1">
+        <v>1</v>
+      </c>
+      <c r="M127" s="1"/>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="1">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -5134,13 +6064,20 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="129" spans="1:9">
+      <c r="J128" s="1">
+        <v>127</v>
+      </c>
+      <c r="K128" s="1">
+        <v>1</v>
+      </c>
+      <c r="M128" s="1"/>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1">
-        <v>128</v>
+        <v>172</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="C129" s="1">
         <v>0</v>
@@ -5162,15 +6099,22 @@
       </c>
       <c r="I129" s="1">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J129" s="1">
+        <v>128</v>
+      </c>
+      <c r="K129" s="1">
+        <v>1</v>
+      </c>
+      <c r="M129" s="1"/>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C130" s="1">
         <v>0</v>
@@ -5192,15 +6136,22 @@
       </c>
       <c r="I130" s="1">
         <f t="shared" ref="I130:I193" si="2">LEN(B130)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J130" s="1">
+        <v>129</v>
+      </c>
+      <c r="K130" s="1">
+        <v>1</v>
+      </c>
+      <c r="M130" s="1"/>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>90</v>
+        <v>122</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
@@ -5222,15 +6173,22 @@
       </c>
       <c r="I131" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J131" s="1">
+        <v>130</v>
+      </c>
+      <c r="K131" s="1">
+        <v>1</v>
+      </c>
+      <c r="M131" s="1"/>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>91</v>
+        <v>133</v>
       </c>
       <c r="C132" s="1">
         <v>0</v>
@@ -5252,15 +6210,22 @@
       </c>
       <c r="I132" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>8</v>
+      </c>
+      <c r="J132" s="1">
+        <v>131</v>
+      </c>
+      <c r="K132" s="1">
+        <v>1</v>
+      </c>
+      <c r="M132" s="1"/>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1">
-        <v>132</v>
+        <v>17</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C133" s="1">
         <v>0</v>
@@ -5282,15 +6247,22 @@
       </c>
       <c r="I133" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J133" s="1">
+        <v>132</v>
+      </c>
+      <c r="K133" s="1">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1"/>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1">
-        <v>133</v>
+        <v>61</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C134" s="1">
         <v>0</v>
@@ -5312,15 +6284,22 @@
       </c>
       <c r="I134" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J134" s="1">
+        <v>133</v>
+      </c>
+      <c r="K134" s="1">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1"/>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="C135" s="1">
         <v>0</v>
@@ -5344,13 +6323,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="136" spans="1:9">
+      <c r="J135" s="1">
+        <v>134</v>
+      </c>
+      <c r="K135" s="1">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1"/>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C136" s="1">
         <v>0</v>
@@ -5374,13 +6360,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="137" spans="1:9">
+      <c r="J136" s="1">
+        <v>135</v>
+      </c>
+      <c r="K136" s="1">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1"/>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1">
         <v>0</v>
@@ -5404,13 +6397,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:9">
+      <c r="J137" s="1">
+        <v>136</v>
+      </c>
+      <c r="K137" s="1">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1"/>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="C138" s="1">
         <v>0</v>
@@ -5432,15 +6432,22 @@
       </c>
       <c r="I138" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J138" s="1">
+        <v>137</v>
+      </c>
+      <c r="K138" s="1">
+        <v>1</v>
+      </c>
+      <c r="M138" s="1"/>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="C139" s="1">
         <v>0</v>
@@ -5464,13 +6471,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="140" spans="1:9">
+      <c r="J139" s="1">
+        <v>138</v>
+      </c>
+      <c r="K139" s="1">
+        <v>1</v>
+      </c>
+      <c r="M139" s="1"/>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1">
-        <v>139</v>
+        <v>87</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="C140" s="1">
         <v>0</v>
@@ -5492,15 +6506,22 @@
       </c>
       <c r="I140" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J140" s="1">
+        <v>139</v>
+      </c>
+      <c r="K140" s="1">
+        <v>1</v>
+      </c>
+      <c r="M140" s="1"/>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>138</v>
+        <v>30</v>
       </c>
       <c r="C141" s="1">
         <v>0</v>
@@ -5524,13 +6545,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:9">
+      <c r="J141" s="1">
+        <v>140</v>
+      </c>
+      <c r="K141" s="1">
+        <v>1</v>
+      </c>
+      <c r="M141" s="1"/>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1">
-        <v>141</v>
+        <v>1</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>145</v>
+        <v>29</v>
       </c>
       <c r="C142" s="1">
         <v>0</v>
@@ -5552,15 +6580,22 @@
       </c>
       <c r="I142" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J142" s="1">
+        <v>141</v>
+      </c>
+      <c r="K142" s="1">
+        <v>1</v>
+      </c>
+      <c r="M142" s="1"/>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1">
-        <v>142</v>
+        <v>36</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
@@ -5582,15 +6617,22 @@
       </c>
       <c r="I143" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J143" s="1">
+        <v>142</v>
+      </c>
+      <c r="K143" s="1">
+        <v>1</v>
+      </c>
+      <c r="M143" s="1"/>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>156</v>
+        <v>86</v>
       </c>
       <c r="C144" s="1">
         <v>0</v>
@@ -5614,13 +6656,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="145" spans="1:9">
+      <c r="J144" s="1">
+        <v>143</v>
+      </c>
+      <c r="K144" s="1">
+        <v>1</v>
+      </c>
+      <c r="M144" s="1"/>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="1">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
@@ -5642,15 +6691,22 @@
       </c>
       <c r="I145" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J145" s="1">
+        <v>144</v>
+      </c>
+      <c r="K145" s="1">
+        <v>1</v>
+      </c>
+      <c r="M145" s="1"/>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="1">
-        <v>145</v>
+        <v>58</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
@@ -5672,15 +6728,22 @@
       </c>
       <c r="I146" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J146" s="1">
+        <v>145</v>
+      </c>
+      <c r="K146" s="1">
+        <v>1</v>
+      </c>
+      <c r="M146" s="1"/>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="1">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C147" s="1">
         <v>0</v>
@@ -5702,15 +6765,22 @@
       </c>
       <c r="I147" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J147" s="1">
+        <v>146</v>
+      </c>
+      <c r="K147" s="1">
+        <v>1</v>
+      </c>
+      <c r="M147" s="1"/>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="1">
-        <v>147</v>
+        <v>101</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>166</v>
+        <v>21</v>
       </c>
       <c r="C148" s="1">
         <v>0</v>
@@ -5734,13 +6804,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="149" spans="1:9">
+      <c r="J148" s="1">
+        <v>147</v>
+      </c>
+      <c r="K148" s="1">
+        <v>1</v>
+      </c>
+      <c r="M148" s="1"/>
+    </row>
+    <row r="149" spans="1:13">
       <c r="A149" s="1">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C149" s="1">
         <v>0</v>
@@ -5764,13 +6841,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:9">
+      <c r="J149" s="1">
+        <v>148</v>
+      </c>
+      <c r="K149" s="1">
+        <v>1</v>
+      </c>
+      <c r="M149" s="1"/>
+    </row>
+    <row r="150" spans="1:13">
       <c r="A150" s="1">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="C150" s="1">
         <v>0</v>
@@ -5794,13 +6878,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:9">
+      <c r="J150" s="1">
+        <v>149</v>
+      </c>
+      <c r="K150" s="1">
+        <v>1</v>
+      </c>
+      <c r="M150" s="1"/>
+    </row>
+    <row r="151" spans="1:13">
       <c r="A151" s="1">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="C151" s="1">
         <v>0</v>
@@ -5822,15 +6913,22 @@
       </c>
       <c r="I151" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J151" s="1">
+        <v>150</v>
+      </c>
+      <c r="K151" s="1">
+        <v>1</v>
+      </c>
+      <c r="M151" s="1"/>
+    </row>
+    <row r="152" spans="1:13">
       <c r="A152" s="1">
-        <v>151</v>
+        <v>81</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>176</v>
+        <v>127</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
@@ -5852,15 +6950,22 @@
       </c>
       <c r="I152" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J152" s="1">
+        <v>151</v>
+      </c>
+      <c r="K152" s="1">
+        <v>1</v>
+      </c>
+      <c r="M152" s="1"/>
+    </row>
+    <row r="153" spans="1:13">
       <c r="A153" s="1">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="C153" s="1">
         <v>0</v>
@@ -5884,13 +6989,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="154" spans="1:9">
+      <c r="J153" s="1">
+        <v>152</v>
+      </c>
+      <c r="K153" s="1">
+        <v>1</v>
+      </c>
+      <c r="M153" s="1"/>
+    </row>
+    <row r="154" spans="1:13">
       <c r="A154" s="1">
-        <v>153</v>
+        <v>68</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>184</v>
+        <v>52</v>
       </c>
       <c r="C154" s="1">
         <v>0</v>
@@ -5912,15 +7024,22 @@
       </c>
       <c r="I154" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J154" s="1">
+        <v>153</v>
+      </c>
+      <c r="K154" s="1">
+        <v>1</v>
+      </c>
+      <c r="M154" s="1"/>
+    </row>
+    <row r="155" spans="1:13">
       <c r="A155" s="1">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>192</v>
+        <v>47</v>
       </c>
       <c r="C155" s="1">
         <v>0</v>
@@ -5942,15 +7061,22 @@
       </c>
       <c r="I155" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J155" s="1">
+        <v>154</v>
+      </c>
+      <c r="K155" s="1">
+        <v>1</v>
+      </c>
+      <c r="M155" s="1"/>
+    </row>
+    <row r="156" spans="1:13">
       <c r="A156" s="1">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>193</v>
+        <v>109</v>
       </c>
       <c r="C156" s="1">
         <v>0</v>
@@ -5974,13 +7100,20 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-    </row>
-    <row r="157" spans="1:9">
+      <c r="J156" s="1">
+        <v>155</v>
+      </c>
+      <c r="K156" s="1">
+        <v>1</v>
+      </c>
+      <c r="M156" s="1"/>
+    </row>
+    <row r="157" spans="1:13">
       <c r="A157" s="1">
-        <v>156</v>
+        <v>31</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>195</v>
+        <v>130</v>
       </c>
       <c r="C157" s="1">
         <v>0</v>
@@ -6002,15 +7135,22 @@
       </c>
       <c r="I157" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J157" s="1">
+        <v>156</v>
+      </c>
+      <c r="K157" s="1">
+        <v>1</v>
+      </c>
+      <c r="M157" s="1"/>
+    </row>
+    <row r="158" spans="1:13">
       <c r="A158" s="1">
-        <v>157</v>
+        <v>11</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>201</v>
+        <v>41</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
@@ -6032,15 +7172,22 @@
       </c>
       <c r="I158" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J158" s="1">
+        <v>157</v>
+      </c>
+      <c r="K158" s="1">
+        <v>1</v>
+      </c>
+      <c r="M158" s="1"/>
+    </row>
+    <row r="159" spans="1:13">
       <c r="A159" s="1">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
@@ -6062,15 +7209,22 @@
       </c>
       <c r="I159" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J159" s="1">
+        <v>158</v>
+      </c>
+      <c r="K159" s="1">
+        <v>1</v>
+      </c>
+      <c r="M159" s="1"/>
+    </row>
+    <row r="160" spans="1:13">
       <c r="A160" s="1">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
       <c r="C160" s="1">
         <v>0</v>
@@ -6092,15 +7246,22 @@
       </c>
       <c r="I160" s="1">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J160" s="1">
+        <v>159</v>
+      </c>
+      <c r="K160" s="1">
+        <v>1</v>
+      </c>
+      <c r="M160" s="1"/>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>27</v>
+        <v>186</v>
       </c>
       <c r="C161" s="1">
         <v>0</v>
@@ -6122,15 +7283,22 @@
       </c>
       <c r="I161" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J161" s="1">
+        <v>160</v>
+      </c>
+      <c r="K161" s="1">
+        <v>1</v>
+      </c>
+      <c r="M161" s="1"/>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>45</v>
+        <v>197</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
@@ -6154,13 +7322,20 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="163" spans="1:9">
+      <c r="J162" s="1">
+        <v>161</v>
+      </c>
+      <c r="K162" s="1">
+        <v>1</v>
+      </c>
+      <c r="M162" s="1"/>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -6184,13 +7359,20 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="164" spans="1:9">
+      <c r="J163" s="1">
+        <v>162</v>
+      </c>
+      <c r="K163" s="1">
+        <v>1</v>
+      </c>
+      <c r="M163" s="1"/>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1">
-        <v>163</v>
+        <v>203</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C164" s="1">
         <v>0</v>
@@ -6212,15 +7394,22 @@
       </c>
       <c r="I164" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>9</v>
+      </c>
+      <c r="J164" s="1">
+        <v>163</v>
+      </c>
+      <c r="K164" s="1">
+        <v>1</v>
+      </c>
+      <c r="M164" s="1"/>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1">
-        <v>164</v>
+        <v>57</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>48</v>
+        <v>203</v>
       </c>
       <c r="C165" s="1">
         <v>0</v>
@@ -6242,15 +7431,22 @@
       </c>
       <c r="I165" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J165" s="1">
+        <v>164</v>
+      </c>
+      <c r="K165" s="1">
+        <v>1</v>
+      </c>
+      <c r="M165" s="1"/>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>53</v>
+        <v>139</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
@@ -6272,15 +7468,22 @@
       </c>
       <c r="I166" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J166" s="1">
+        <v>165</v>
+      </c>
+      <c r="K166" s="1">
+        <v>1</v>
+      </c>
+      <c r="M166" s="1"/>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1">
-        <v>166</v>
+        <v>97</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -6302,15 +7505,22 @@
       </c>
       <c r="I167" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J167" s="1">
+        <v>166</v>
+      </c>
+      <c r="K167" s="1">
+        <v>1</v>
+      </c>
+      <c r="M167" s="1"/>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="C168" s="1">
         <v>0</v>
@@ -6334,13 +7544,20 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="169" spans="1:9">
+      <c r="J168" s="1">
+        <v>167</v>
+      </c>
+      <c r="K168" s="1">
+        <v>1</v>
+      </c>
+      <c r="M168" s="1"/>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1">
-        <v>168</v>
+        <v>73</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -6362,15 +7579,22 @@
       </c>
       <c r="I169" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J169" s="1">
+        <v>168</v>
+      </c>
+      <c r="K169" s="1">
+        <v>1</v>
+      </c>
+      <c r="M169" s="1"/>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C170" s="1">
         <v>0</v>
@@ -6392,15 +7616,22 @@
       </c>
       <c r="I170" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J170" s="1">
+        <v>169</v>
+      </c>
+      <c r="K170" s="1">
+        <v>1</v>
+      </c>
+      <c r="M170" s="1"/>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -6424,13 +7655,20 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="172" spans="1:9">
+      <c r="J171" s="1">
+        <v>170</v>
+      </c>
+      <c r="K171" s="1">
+        <v>1</v>
+      </c>
+      <c r="M171" s="1"/>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1">
-        <v>171</v>
+        <v>38</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>101</v>
+        <v>155</v>
       </c>
       <c r="C172" s="1">
         <v>0</v>
@@ -6452,15 +7690,22 @@
       </c>
       <c r="I172" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J172" s="1">
+        <v>171</v>
+      </c>
+      <c r="K172" s="1">
+        <v>1</v>
+      </c>
+      <c r="M172" s="1"/>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>103</v>
+        <v>195</v>
       </c>
       <c r="C173" s="1">
         <v>0</v>
@@ -6482,15 +7727,22 @@
       </c>
       <c r="I173" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J173" s="1">
+        <v>172</v>
+      </c>
+      <c r="K173" s="1">
+        <v>1</v>
+      </c>
+      <c r="M173" s="1"/>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1">
-        <v>173</v>
+        <v>143</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="C174" s="1">
         <v>0</v>
@@ -6512,15 +7764,22 @@
       </c>
       <c r="I174" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J174" s="1">
+        <v>173</v>
+      </c>
+      <c r="K174" s="1">
+        <v>1</v>
+      </c>
+      <c r="M174" s="1"/>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C175" s="1">
         <v>0</v>
@@ -6542,15 +7801,22 @@
       </c>
       <c r="I175" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J175" s="1">
+        <v>174</v>
+      </c>
+      <c r="K175" s="1">
+        <v>1</v>
+      </c>
+      <c r="M175" s="1"/>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="C176" s="1">
         <v>0</v>
@@ -6572,15 +7838,22 @@
       </c>
       <c r="I176" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J176" s="1">
+        <v>175</v>
+      </c>
+      <c r="K176" s="1">
+        <v>1</v>
+      </c>
+      <c r="M176" s="1"/>
+    </row>
+    <row r="177" spans="1:13">
       <c r="A177" s="1">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="C177" s="1">
         <v>0</v>
@@ -6602,15 +7875,22 @@
       </c>
       <c r="I177" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J177" s="1">
+        <v>176</v>
+      </c>
+      <c r="K177" s="1">
+        <v>1</v>
+      </c>
+      <c r="M177" s="1"/>
+    </row>
+    <row r="178" spans="1:13">
       <c r="A178" s="1">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C178" s="1">
         <v>0</v>
@@ -6632,15 +7912,22 @@
       </c>
       <c r="I178" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J178" s="1">
+        <v>177</v>
+      </c>
+      <c r="K178" s="1">
+        <v>1</v>
+      </c>
+      <c r="M178" s="1"/>
+    </row>
+    <row r="179" spans="1:13">
       <c r="A179" s="1">
-        <v>178</v>
+        <v>117</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>142</v>
+        <v>61</v>
       </c>
       <c r="C179" s="1">
         <v>0</v>
@@ -6662,15 +7949,22 @@
       </c>
       <c r="I179" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J179" s="1">
+        <v>178</v>
+      </c>
+      <c r="K179" s="1">
+        <v>1</v>
+      </c>
+      <c r="M179" s="1"/>
+    </row>
+    <row r="180" spans="1:13">
       <c r="A180" s="1">
-        <v>179</v>
+        <v>83</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="C180" s="1">
         <v>0</v>
@@ -6692,15 +7986,22 @@
       </c>
       <c r="I180" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J180" s="1">
+        <v>179</v>
+      </c>
+      <c r="K180" s="1">
+        <v>1</v>
+      </c>
+      <c r="M180" s="1"/>
+    </row>
+    <row r="181" spans="1:13">
       <c r="A181" s="1">
-        <v>180</v>
+        <v>77</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C181" s="1">
         <v>0</v>
@@ -6722,15 +8023,22 @@
       </c>
       <c r="I181" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J181" s="1">
+        <v>180</v>
+      </c>
+      <c r="K181" s="1">
+        <v>1</v>
+      </c>
+      <c r="M181" s="1"/>
+    </row>
+    <row r="182" spans="1:13">
       <c r="A182" s="1">
-        <v>181</v>
+        <v>63</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="C182" s="1">
         <v>0</v>
@@ -6752,15 +8060,22 @@
       </c>
       <c r="I182" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J182" s="1">
+        <v>181</v>
+      </c>
+      <c r="K182" s="1">
+        <v>1</v>
+      </c>
+      <c r="M182" s="1"/>
+    </row>
+    <row r="183" spans="1:13">
       <c r="A183" s="1">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="C183" s="1">
         <v>0</v>
@@ -6782,15 +8097,22 @@
       </c>
       <c r="I183" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J183" s="1">
+        <v>182</v>
+      </c>
+      <c r="K183" s="1">
+        <v>1</v>
+      </c>
+      <c r="M183" s="1"/>
+    </row>
+    <row r="184" spans="1:13">
       <c r="A184" s="1">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>199</v>
+        <v>44</v>
       </c>
       <c r="C184" s="1">
         <v>0</v>
@@ -6812,15 +8134,22 @@
       </c>
       <c r="I184" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J184" s="1">
+        <v>183</v>
+      </c>
+      <c r="K184" s="1">
+        <v>1</v>
+      </c>
+      <c r="M184" s="1"/>
+    </row>
+    <row r="185" spans="1:13">
       <c r="A185" s="1">
-        <v>184</v>
+        <v>82</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="C185" s="1">
         <v>0</v>
@@ -6842,15 +8171,22 @@
       </c>
       <c r="I185" s="1">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J185" s="1">
+        <v>184</v>
+      </c>
+      <c r="K185" s="1">
+        <v>1</v>
+      </c>
+      <c r="M185" s="1"/>
+    </row>
+    <row r="186" spans="1:13">
       <c r="A186" s="1">
-        <v>185</v>
+        <v>14</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="C186" s="1">
         <v>0</v>
@@ -6872,15 +8208,22 @@
       </c>
       <c r="I186" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J186" s="1">
+        <v>185</v>
+      </c>
+      <c r="K186" s="1">
+        <v>1</v>
+      </c>
+      <c r="M186" s="1"/>
+    </row>
+    <row r="187" spans="1:13">
       <c r="A187" s="1">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="C187" s="1">
         <v>0</v>
@@ -6902,15 +8245,22 @@
       </c>
       <c r="I187" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J187" s="1">
+        <v>186</v>
+      </c>
+      <c r="K187" s="1">
+        <v>1</v>
+      </c>
+      <c r="M187" s="1"/>
+    </row>
+    <row r="188" spans="1:13">
       <c r="A188" s="1">
-        <v>187</v>
+        <v>135</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="C188" s="1">
         <v>0</v>
@@ -6932,15 +8282,22 @@
       </c>
       <c r="I188" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J188" s="1">
+        <v>187</v>
+      </c>
+      <c r="K188" s="1">
+        <v>1</v>
+      </c>
+      <c r="M188" s="1"/>
+    </row>
+    <row r="189" spans="1:13">
       <c r="A189" s="1">
-        <v>188</v>
+        <v>26</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C189" s="1">
         <v>0</v>
@@ -6962,15 +8319,22 @@
       </c>
       <c r="I189" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J189" s="1">
+        <v>188</v>
+      </c>
+      <c r="K189" s="1">
+        <v>1</v>
+      </c>
+      <c r="M189" s="1"/>
+    </row>
+    <row r="190" spans="1:13">
       <c r="A190" s="1">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="C190" s="1">
         <v>0</v>
@@ -6994,13 +8358,20 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="191" spans="1:9">
+      <c r="J190" s="1">
+        <v>189</v>
+      </c>
+      <c r="K190" s="1">
+        <v>1</v>
+      </c>
+      <c r="M190" s="1"/>
+    </row>
+    <row r="191" spans="1:13">
       <c r="A191" s="1">
-        <v>190</v>
+        <v>2</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="C191" s="1">
         <v>0</v>
@@ -7022,15 +8393,22 @@
       </c>
       <c r="I191" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="J191" s="1">
+        <v>190</v>
+      </c>
+      <c r="K191" s="1">
+        <v>1</v>
+      </c>
+      <c r="M191" s="1"/>
+    </row>
+    <row r="192" spans="1:13">
       <c r="A192" s="1">
-        <v>191</v>
+        <v>148</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>110</v>
+        <v>167</v>
       </c>
       <c r="C192" s="1">
         <v>0</v>
@@ -7052,15 +8430,22 @@
       </c>
       <c r="I192" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J192" s="1">
+        <v>191</v>
+      </c>
+      <c r="K192" s="1">
+        <v>1</v>
+      </c>
+      <c r="M192" s="1"/>
+    </row>
+    <row r="193" spans="1:13">
       <c r="A193" s="1">
-        <v>192</v>
+        <v>25</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="C193" s="1">
         <v>0</v>
@@ -7082,15 +8467,22 @@
       </c>
       <c r="I193" s="1">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J193" s="1">
+        <v>192</v>
+      </c>
+      <c r="K193" s="1">
+        <v>1</v>
+      </c>
+      <c r="M193" s="1"/>
+    </row>
+    <row r="194" spans="1:13">
       <c r="A194" s="1">
-        <v>193</v>
+        <v>116</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>161</v>
+        <v>59</v>
       </c>
       <c r="C194" s="1">
         <v>0</v>
@@ -7112,15 +8504,22 @@
       </c>
       <c r="I194" s="1">
         <f t="shared" ref="I194:I209" si="3">LEN(B194)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J194" s="1">
+        <v>193</v>
+      </c>
+      <c r="K194" s="1">
+        <v>1</v>
+      </c>
+      <c r="M194" s="1"/>
+    </row>
+    <row r="195" spans="1:13">
       <c r="A195" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>200</v>
+        <v>94</v>
       </c>
       <c r="C195" s="1">
         <v>0</v>
@@ -7142,15 +8541,22 @@
       </c>
       <c r="I195" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>7</v>
+      </c>
+      <c r="J195" s="1">
+        <v>194</v>
+      </c>
+      <c r="K195" s="1">
+        <v>1</v>
+      </c>
+      <c r="M195" s="1"/>
+    </row>
+    <row r="196" spans="1:13">
       <c r="A196" s="1">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="C196" s="1">
         <v>0</v>
@@ -7172,15 +8578,22 @@
       </c>
       <c r="I196" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J196" s="1">
+        <v>195</v>
+      </c>
+      <c r="K196" s="1">
+        <v>1</v>
+      </c>
+      <c r="M196" s="1"/>
+    </row>
+    <row r="197" spans="1:13">
       <c r="A197" s="1">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="C197" s="1">
         <v>0</v>
@@ -7202,15 +8615,22 @@
       </c>
       <c r="I197" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>6</v>
+      </c>
+      <c r="J197" s="1">
+        <v>196</v>
+      </c>
+      <c r="K197" s="1">
+        <v>1</v>
+      </c>
+      <c r="M197" s="1"/>
+    </row>
+    <row r="198" spans="1:13">
       <c r="A198" s="1">
-        <v>197</v>
+        <v>39</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>125</v>
+        <v>157</v>
       </c>
       <c r="C198" s="1">
         <v>0</v>
@@ -7232,15 +8652,22 @@
       </c>
       <c r="I198" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J198" s="1">
+        <v>197</v>
+      </c>
+      <c r="K198" s="1">
+        <v>1</v>
+      </c>
+      <c r="M198" s="1"/>
+    </row>
+    <row r="199" spans="1:13">
       <c r="A199" s="1">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>179</v>
+        <v>51</v>
       </c>
       <c r="C199" s="1">
         <v>0</v>
@@ -7262,15 +8689,22 @@
       </c>
       <c r="I199" s="1">
         <f t="shared" si="3"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>11</v>
+      </c>
+      <c r="J199" s="1">
+        <v>198</v>
+      </c>
+      <c r="K199" s="1">
+        <v>1</v>
+      </c>
+      <c r="M199" s="1"/>
+    </row>
+    <row r="200" spans="1:13">
       <c r="A200" s="1">
-        <v>199</v>
+        <v>33</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="C200" s="1">
         <v>0</v>
@@ -7292,15 +8726,22 @@
       </c>
       <c r="I200" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J200" s="1">
+        <v>199</v>
+      </c>
+      <c r="K200" s="1">
+        <v>1</v>
+      </c>
+      <c r="M200" s="1"/>
+    </row>
+    <row r="201" spans="1:13">
       <c r="A201" s="1">
-        <v>200</v>
+        <v>89</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>56</v>
+        <v>152</v>
       </c>
       <c r="C201" s="1">
         <v>0</v>
@@ -7322,15 +8763,22 @@
       </c>
       <c r="I201" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J201" s="1">
+        <v>200</v>
+      </c>
+      <c r="K201" s="1">
+        <v>1</v>
+      </c>
+      <c r="M201" s="1"/>
+    </row>
+    <row r="202" spans="1:13">
       <c r="A202" s="1">
-        <v>201</v>
+        <v>168</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
@@ -7352,15 +8800,22 @@
       </c>
       <c r="I202" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>5</v>
+      </c>
+      <c r="J202" s="1">
+        <v>201</v>
+      </c>
+      <c r="K202" s="1">
+        <v>1</v>
+      </c>
+      <c r="M202" s="1"/>
+    </row>
+    <row r="203" spans="1:13">
       <c r="A203" s="1">
-        <v>202</v>
+        <v>49</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C203" s="1">
         <v>0</v>
@@ -7382,15 +8837,22 @@
       </c>
       <c r="I203" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J203" s="1">
+        <v>202</v>
+      </c>
+      <c r="K203" s="1">
+        <v>1</v>
+      </c>
+      <c r="M203" s="1"/>
+    </row>
+    <row r="204" spans="1:13">
       <c r="A204" s="1">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="C204" s="1">
         <v>0</v>
@@ -7412,15 +8874,22 @@
       </c>
       <c r="I204" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J204" s="1">
+        <v>203</v>
+      </c>
+      <c r="K204" s="1">
+        <v>1</v>
+      </c>
+      <c r="M204" s="1"/>
+    </row>
+    <row r="205" spans="1:13">
       <c r="A205" s="1">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="C205" s="1">
         <v>0</v>
@@ -7442,15 +8911,22 @@
       </c>
       <c r="I205" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>2</v>
+      </c>
+      <c r="J205" s="1">
+        <v>204</v>
+      </c>
+      <c r="K205" s="1">
+        <v>1</v>
+      </c>
+      <c r="M205" s="1"/>
+    </row>
+    <row r="206" spans="1:13">
       <c r="A206" s="1">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="C206" s="1">
         <v>0</v>
@@ -7472,15 +8948,22 @@
       </c>
       <c r="I206" s="1">
         <f t="shared" si="3"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J206" s="1">
+        <v>205</v>
+      </c>
+      <c r="K206" s="1">
+        <v>1</v>
+      </c>
+      <c r="M206" s="1"/>
+    </row>
+    <row r="207" spans="1:13">
       <c r="A207" s="1">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="C207" s="1">
         <v>0</v>
@@ -7502,15 +8985,22 @@
       </c>
       <c r="I207" s="1">
         <f t="shared" si="3"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="J207" s="1">
+        <v>206</v>
+      </c>
+      <c r="K207" s="1">
+        <v>1</v>
+      </c>
+      <c r="M207" s="1"/>
+    </row>
+    <row r="208" spans="1:13">
       <c r="A208" s="1">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
@@ -7532,15 +9022,22 @@
       </c>
       <c r="I208" s="1">
         <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>3</v>
+      </c>
+      <c r="J208" s="1">
+        <v>207</v>
+      </c>
+      <c r="K208" s="1">
+        <v>1</v>
+      </c>
+      <c r="M208" s="1"/>
+    </row>
+    <row r="209" spans="1:13">
       <c r="A209" s="1">
-        <v>208</v>
+        <v>66</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>217</v>
+        <v>31</v>
       </c>
       <c r="C209" s="1">
         <v>0</v>
@@ -7562,8 +9059,15 @@
       </c>
       <c r="I209" s="1">
         <f t="shared" si="3"/>
-        <v>15</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="J209" s="1">
+        <v>208</v>
+      </c>
+      <c r="K209" s="1">
+        <v>1</v>
+      </c>
+      <c r="M209" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/terms-source/terms-juridical-v1a2.xlsx
+++ b/terms-source/terms-juridical-v1a2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kowk/Dropbox/GitHub/LDA-mixed-terms/terms-source/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65CAFEE8-6AF2-5845-AF25-DE7F2D0F8723}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14F0E19-A9BB-FB45-BFAF-B4DA03832126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7320" yWindow="1080" windowWidth="29600" windowHeight="17820" xr2:uid="{0DED6FE7-FA38-2E46-8D7C-56B052820303}"/>
   </bookViews>
@@ -770,6 +770,21 @@
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Lucida Sans Unicode"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
         <outline val="0"/>
@@ -797,21 +812,6 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Lucida Sans Unicode"/>
-        <scheme val="none"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -1009,11 +1009,11 @@
     <tableColumn id="9" xr3:uid="{CA40DE33-F07A-4A44-877F-44A0B8B7AD64}" name="nchar" dataDxfId="3">
       <calculatedColumnFormula>LEN(B2)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{44BAB56B-34CC-2E4E-8D01-00C3539CC96E}" name="rid" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{44BAB56B-34CC-2E4E-8D01-00C3539CC96E}" name="rid" dataDxfId="2">
       <calculatedColumnFormula>RAND()</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{3CD9B7B8-986A-F94A-913D-0A32BBD578C7}" name="subsampled" dataDxfId="0"/>
-    <tableColumn id="8" xr3:uid="{8E9837A3-9DF1-3640-B6F8-4CF6BC3CDB7A}" name="note" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{3CD9B7B8-986A-F94A-913D-0A32BBD578C7}" name="subsampled" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{8E9837A3-9DF1-3640-B6F8-4CF6BC3CDB7A}" name="note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1316,14 +1316,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFCF3E8E-7A38-3045-AF13-F42FE1E8EA1D}">
-  <dimension ref="A1:M209"/>
+  <dimension ref="A1:M212"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="113" workbookViewId="0">
-      <pane xSplit="4520" ySplit="5560" topLeftCell="C197" activePane="bottomRight"/>
+      <pane xSplit="4520" ySplit="5560" topLeftCell="A203" activePane="bottomRight"/>
       <selection sqref="A1:XFD1048576"/>
       <selection pane="topRight" activeCell="K2" sqref="K2:K209"/>
       <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
-      <selection pane="bottomRight" activeCell="I205" sqref="I205"/>
+      <selection pane="bottomRight" activeCell="D212" sqref="D211:D212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -9069,6 +9069,32 @@
       </c>
       <c r="M209" s="1"/>
     </row>
+    <row r="212" spans="1:13">
+      <c r="C212" s="1">
+        <f>SUM(C2:C209)</f>
+        <v>0</v>
+      </c>
+      <c r="D212" s="1">
+        <f t="shared" ref="D212:H212" si="4">SUM(D2:D209)</f>
+        <v>0</v>
+      </c>
+      <c r="E212" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F212" s="1">
+        <f t="shared" si="4"/>
+        <v>208</v>
+      </c>
+      <c r="G212" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H212" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
